--- a/数据整理/stocks/A股/深证主板/000338-潍柴动力.xlsx
+++ b/数据整理/stocks/A股/深证主板/000338-潍柴动力.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6304,7 +6305,6 @@
           <t>上投摩根双息平衡混合H</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
           <t>63.79</t>
@@ -6336,7 +6336,6 @@
           <t>创金合信汇悦一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
           <t>33.50</t>
@@ -6352,6 +6351,2266 @@
       </c>
       <c r="H78" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9974</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0783</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8505</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8505</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6242</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3748</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1460</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0225</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0072</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6272</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5749</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5616</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>63.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5310</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4870</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160627</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4624</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3334</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2825</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2206</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001331</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>40.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001157</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国联安睿祺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011667</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000664</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002485</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008837</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>融通通益混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>34.19</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>融通新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011668</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001332</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>97.98</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>28.19</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>28.19</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000338-潍柴动力.xlsx
+++ b/数据整理/stocks/A股/深证主板/000338-潍柴动力.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8616,4 +8617,2338 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8380</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0564</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6796</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4041</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3162</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2675</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8776</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7103</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5866</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5736</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5338</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>62.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5122</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4590</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4293</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3306</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160627</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3109</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2757</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>39.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001157</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国联安睿祺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>31.73</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010395</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>24.76</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>31.73</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>24.76</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010396</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000338-潍柴动力.xlsx
+++ b/数据整理/stocks/A股/深证主板/000338-潍柴动力.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10951,4 +10952,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>58</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>77</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>76</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000338-潍柴动力.xlsx
+++ b/数据整理/stocks/A股/深证主板/000338-潍柴动力.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10960,7 +10961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10971,17 +10972,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10991,14 +11012,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>60</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.5</v>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7837</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -11007,14 +11050,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>58</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.75</v>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7210</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -11023,14 +11088,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>77</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.18</v>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2915</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -11039,13 +11126,1291 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6091</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6091</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8243</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7132</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6594</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6464</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6138</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012510</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3601</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160627</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3191</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2165</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>42.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>42.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012511</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>77</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>76</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000338-潍柴动力.xlsx
+++ b/数据整理/stocks/A股/深证主板/000338-潍柴动力.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12309,7 +12310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12320,17 +12321,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12340,14 +12361,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.06</v>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0262</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -12356,14 +12399,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>60</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.5</v>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7102</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -12372,14 +12437,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>58</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.75</v>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4519</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -12388,14 +12475,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>77</v>
-      </c>
-      <c r="D5" t="n">
-        <v>26.18</v>
+          <t>160627</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2385</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -12404,13 +12513,965 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000664</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001228</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002186</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002485</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008837</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通通益混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>58</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>77</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>76</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000338-潍柴动力.xlsx
+++ b/数据整理/stocks/A股/深证主板/000338-潍柴动力.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13354,7 +13355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13365,17 +13366,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13385,14 +13406,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.45</v>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8952</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -13401,14 +13444,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.06</v>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4739</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -13417,14 +13482,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>60</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.5</v>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4995</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -13433,14 +13520,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>58</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27.75</v>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -13449,14 +13558,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>77</v>
-      </c>
-      <c r="D6" t="n">
-        <v>26.18</v>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -13465,13 +13596,715 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>35.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004131</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001228</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001157</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安睿祺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002186</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004132</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>58</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>77</v>
+      </c>
+      <c r="D7" t="n">
+        <v>26.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>76</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000338-潍柴动力.xlsx
+++ b/数据整理/stocks/A股/深证主板/000338-潍柴动力.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>5.1</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>5.45</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>17.06</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>23.5</v>
+        <v>17.06</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
-        <v>27.75</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D7" t="n">
-        <v>26.18</v>
+        <v>27.75</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>77</v>
+      </c>
+      <c r="D8" t="n">
+        <v>26.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>76</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>23</v>
       </c>
     </row>
@@ -600,6 +617,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2721</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9585</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3370</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2754</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004131</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002186</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>33.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001228</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>33.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004132</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1415,7 +2058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2459,7 +3102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3807,7 +4450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6141,7 +6784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8401,7 +9044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11369,7 +12012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000338-潍柴动力.xlsx
+++ b/数据整理/stocks/A股/深证主板/000338-潍柴动力.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>3.18</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>5.1</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>5.45</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>17.06</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>23.5</v>
+        <v>17.06</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" t="n">
-        <v>27.75</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D8" t="n">
-        <v>26.18</v>
+        <v>27.75</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2974 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>77</v>
+      </c>
+      <c r="D9" t="n">
+        <v>26.18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>76</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161606</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通行业景气混合A/B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5222</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009277</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通行业景气混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.5222</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4675</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3509</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7427</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6343</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6186</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3525</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3171</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3028</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3028</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2350</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>502013</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛中证申万一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003142</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001325</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001327</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003780</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华兴悦定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>66.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001331</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001228</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001157</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国联安睿祺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>41.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002186</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003026</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003476</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方安颐混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005059</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方安福混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001566</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001335</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003143</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>253010</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国联安安心成长混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.55</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001570</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方利安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>24.98</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001328</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>融通新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.48</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001326</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>33.36</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002612</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>融通通慧混合A/B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007387</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>融通通慧混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008837</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>融通通益混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001505</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>33.36</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001332</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007569</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方安福混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003027</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001580</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方利安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>24.98</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001567</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001682</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>新华鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>27.40</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3578,1012 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0096</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2078</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004131</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002485</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>36.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004132</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000664</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>36.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002186</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014829</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014830</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001228</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1242,7 +5209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2058,7 +6025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3102,7 +7069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4450,7 +8417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6784,7 +10751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9044,7 +13011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12010,2948 +15977,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H77"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161606</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>融通行业景气混合A/B</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>89.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.5222</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009277</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通行业景气混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>89.59</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6.5222</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002989</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通通乾研究精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19.54</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.92</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4675</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001256</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泓德优选成长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>37.42</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.41</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3509</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>470098</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富逆向投资混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>18.16</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7427</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008382</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>融通产业趋势股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.85</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6343</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161610</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>融通领先成长混合(LOF)A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>32.39</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.60</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6186</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>880007</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商资管智远成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11.12</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>72.73</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3525</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>161601</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>融通新蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>20.59</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>74.34</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3171</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>960005</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>上投摩根双息平衡混合H</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>11.92</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>64.06</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3028</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>373010</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>上投摩根双息平衡混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>11.92</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>64.06</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3028</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003165</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.32</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2350</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>159910</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>嘉实深证基本面120ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>9.34</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>99.75</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2055</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>320011</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>诺安中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>85.87</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1991</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>159916</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>建信深证基本面60ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>99.32</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1652</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>206013</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏华宏观灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>8.24</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>30.56</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1533</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>502013</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>长盛中证申万一带一路主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1429</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009230</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>鹏华安和混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1282</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009667</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1230</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003663</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>鹏华兴泰定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>8.86</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>26.61</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1108</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003142</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>鹏华弘达灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>26.11</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1104</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001325</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>鹏华弘和灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>25.81</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1102</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001327</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>鹏华弘华灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>10.29</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1101</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>003780</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>鹏华兴悦定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>8.35</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>26.88</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1002</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002955</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>融通新趋势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0957</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006084</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>融通研究优选混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0946</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>003456</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>信达澳银新目标灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>66.25</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0909</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001331</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>鹏华弘信灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>26.16</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0901</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>005416</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>34.90</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0789</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>001528</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>诺安先进制造股票</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>90.11</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0724</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>001318</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>东方新策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>23.95</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0678</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001228</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>国联安鑫享灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>24.86</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0644</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>001157</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>国联安睿祺灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>20.35</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0632</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>400020</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>东方成长回报平衡混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>41.27</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0619</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>006429</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>诺安恒鑫混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0617</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>320015</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>诺安行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0617</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>002186</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>国联安鑫享灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>24.86</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0589</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>003026</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>安信新价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>21.57</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0536</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>003476</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>南方安颐混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>8.67</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>23.50</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0529</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>005059</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>南方安福混合A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>24.53</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0518</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>001566</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>南方利达灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>8.48</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>24.09</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0517</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>001335</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>南方利众灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>23.44</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0484</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>003143</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>鹏华弘达灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>26.11</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0427</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>515870</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>嘉实中证先进制造100策略ETF</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>99.65</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0405</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>253010</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>国联安安心成长混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>22.55</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0403</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>001570</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>南方利安灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>24.98</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0402</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>002060</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>东方新策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>23.95</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0399</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>001328</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>鹏华弘华灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0396</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>002049</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>融通新机遇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>24.48</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0392</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>001326</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>鹏华弘和灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>25.81</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0376</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>881007</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>招商资管智远成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>72.73</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0342</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>005067</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>融通逆向策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>33.36</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0316</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>002612</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>融通通慧混合A/B</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>27.63</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0314</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>007387</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>融通通慧混合C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>27.63</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0314</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>003279</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>融通沪港深智慧生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>28.53</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0314</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>002605</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>融通新消费灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>23.53</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0312</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>005618</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>融通红利机会主题精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>23.21</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0300</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>008837</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>融通通益混合</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>23.50</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0282</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>009231</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0238</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>005417</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>34.90</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>001505</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>南方利众灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>23.44</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>009270</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>融通逆向策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>33.36</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>005619</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>融通红利机会主题精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>23.21</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0171</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>001332</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>鹏华弘信灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>26.16</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0167</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>159913</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>交银深证300价值ETF</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>98.02</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0153</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>007569</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>南方安福混合C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>24.53</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0125</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>003027</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>安信新价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>21.57</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>290010</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>泰信中证200指数基金</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>001580</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>南方利安灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>24.98</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>001567</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>南方利达灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>24.09</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>003166</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>89.32</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>001682</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>新华鑫回报混合</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>27.40</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>009241</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>融通领先成长混合(LOF)C</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>94.60</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>006009</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>国融融银灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>33.01</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>006010</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>国融融银灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>33.01</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>